--- a/tabelas/canvas.xlsx
+++ b/tabelas/canvas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>1 - Definição do Problema</t>
   </si>
@@ -35,12 +35,128 @@
   <si>
     <t>6 - Preparação dos Dados</t>
   </si>
+  <si>
+    <t xml:space="preserve"> - Identificar os recursos escolares que têm maior impacto sobre a qualidade da educação.
+ - Permitir uma melhor alocação dos recursos públicos direcionados para educação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - A nota média das escolas no Saeb é utilizado como proxy para mensurar a qualidade da educação.
+ - O objetivo é projetar quais variáveis tem impacto sobre a nota média das escolas no Saeb
+ - As variáveis explicativas mensuram os recursos que estão disponíveis, formação docente e nível socioeconômico em que a escola está inserida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Os modelos são avaliados pela estatística R-quadrado ajustado.
+ - Os parâmetros do modelo são mensurados a partir da estatísitca t.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Os dados são disponibilizado na forma de documento de texto separados por vírgula ou tabulação.
+ - As observações ausentes em algumas variáveis explicativas foram excluídas da base de dados.
+ - Variáveis que apenas acresecentavam informação complementar à outras foram exluídas.
+ - Realizado uma análise de correlação para evitar problemas de muilticolinearidade nos modelos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Dados de desempenho escolar no </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Saeb 2017.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Dados do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Censo Escolar 201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.
+ - Todos os dados são fornecidos pelo INEP.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Utilizou-se modelos de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regressão linear múltipla</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+ - Também foi utilizado um modelo de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>árvore de decisão</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para prever observações ausentes da variável que mensura o nível socioeconômico.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +175,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -113,21 +244,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,431 +666,447 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A14:E24"/>
+    <mergeCell ref="F14:J24"/>
+    <mergeCell ref="K14:O24"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:O1"/>
@@ -864,10 +1115,6 @@
     <mergeCell ref="A2:E12"/>
     <mergeCell ref="F2:J12"/>
     <mergeCell ref="K2:O12"/>
-    <mergeCell ref="A14:E24"/>
-    <mergeCell ref="F14:J24"/>
-    <mergeCell ref="K14:O24"/>
-    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/tabelas/canvas.xlsx
+++ b/tabelas/canvas.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="Herlis Junior"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="23955" windowHeight="10545"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="23955" windowHeight="10545" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId4"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId5"/>
+    <sheet name="Plan3" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:revision xmlns:pm="smNativeData" day="1571266979" val="971" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1571266979" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1571266979" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1571266979"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,6 +36,102 @@
     <t>3 - Aquisição de Dados</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Identificar os recursos escolares que têm maior impacto sobre a qualidade da educação.
+ - Permitir uma melhor alocação dos recursos públicos direcionados para educação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - A nota média das escolas no Saeb é utilizado como proxy para mensurar a qualidade da educação.
+ - O objetivo é projetar quais variáveis tem impacto sobre a nota média das escolas no Saeb
+ - As variáveis explicativas mensuram os recursos que estão disponíveis, formação docente e nível socioeconômico em que a escola está inserida.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Dados de desempenho escolar no </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1571266979">
+              <pm:latin face="Calibri" sz="200" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Saeb 2017.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1571266979">
+              <pm:latin face="Calibri" sz="200" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">
+ - Dados do </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1571266979">
+              <pm:latin face="Calibri" sz="200" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Censo Escolar 201</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1571266979">
+              <pm:latin face="Calibri" sz="200" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>7.
+ - Todos os dados são fornecidos pelo INEP.</t>
+    </r>
+  </si>
+  <si>
     <t>4 - Modelagem</t>
   </si>
   <si>
@@ -36,13 +141,90 @@
     <t>6 - Preparação dos Dados</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Identificar os recursos escolares que têm maior impacto sobre a qualidade da educação.
- - Permitir uma melhor alocação dos recursos públicos direcionados para educação.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - A nota média das escolas no Saeb é utilizado como proxy para mensurar a qualidade da educação.
- - O objetivo é projetar quais variáveis tem impacto sobre a nota média das escolas no Saeb
- - As variáveis explicativas mensuram os recursos que estão disponíveis, formação docente e nível socioeconômico em que a escola está inserida.</t>
+    <r>
+      <t xml:space="preserve"> - Utilizou-se modelos de </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1571266979">
+              <pm:latin face="Calibri" sz="200" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>regressão linear múltipla</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1571266979">
+              <pm:latin face="Calibri" sz="200" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">.
+ - Também foi utilizado um modelo de </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1571266979">
+              <pm:latin face="Calibri" sz="200" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>árvore de decisão</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1571266979">
+              <pm:latin face="Calibri" sz="200" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> para prever observações ausentes da variável que mensura o nível socioeconômico.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"> - Os modelos são avaliados pela estatística R-quadrado ajustado.
@@ -54,148 +236,116 @@
  - Variáveis que apenas acresecentavam informação complementar à outras foram exluídas.
  - Realizado uma análise de correlação para evitar problemas de muilticolinearidade nos modelos.</t>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - Dados de desempenho escolar no </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Saeb 2017.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- - Dados do </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Censo Escolar 201</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7.
- - Todos os dados são fornecidos pelo INEP.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - Utilizou-se modelos de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>regressão linear múltipla</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
- - Também foi utilizado um modelo de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>árvore de decisão</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> para prever observações ausentes da variável que mensura o nível socioeconômico.</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;R$&quot;;\-#,##0\ &quot;R$&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;R$&quot;;[Red]\-#,##0\ &quot;R$&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;R$&quot;;\-#,##0.00\ &quot;R$&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;R$&quot;;[Red]\-#,##0.00\ &quot;R$&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;R$&quot;_-;\-* #,##0\ &quot;R$&quot;_-;_-* &quot;-&quot;\ &quot;R$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _R_$_-;\-* #,##0\ _R_$_-;_-* &quot;-&quot;\ _R_$_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;R$&quot;_-;\-* #,##0.00\ &quot;R$&quot;_-;_-* &quot;-&quot;??\ &quot;R$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _R_$_-;\-* #,##0.00\ _R_$_-;_-* &quot;-&quot;??\ _R_$_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1571266979" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default"/>
+            <pm:ea face="SimSun" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1571266979" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1571266979" fgClr="FFFFFF" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
+            <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1571266979" fgClr="FFFFFF" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default"/>
+            <pm:ea face="SimSun" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1571266979" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1571266979" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="200" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,179 +354,472 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1571266979" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1571266979" type="1" fgLvl="100" fgClr="007F7F7F" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1571266979" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1571266979" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1571266979" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1571266979" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1571266979" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1571266979" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1571266979" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1571266979" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1571266979" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1571266979" type="1" fgLvl="100" fgClr="007F7F7F" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1571266979"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1571266979"/>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1571266979">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1571266979">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1571266979">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1571266979">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1571266979">
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1571266979"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1571266979">
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1571266979">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1571266979">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1571266979">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1571266979"/>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0"/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:charStyles xmlns:pm="smNativeData" id="1571266979" count="1">
+        <pm:charStyle name="Normal" fontId="0" Id="1"/>
+      </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1571266979" count="1">
+        <pm:color name="Cor 24" rgb="F2F2F2"/>
+      </pm:colors>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -384,10 +827,10 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="EEECE1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="1F497D"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -414,77 +857,19 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:ea typeface="SimSun"/>
+        <a:cs typeface="Times New Roman"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -651,7 +1036,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr>
+        <a:prstTxWarp prst="textNoShape">
+          <a:avLst/>
+        </a:prstTxWarp>
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -660,13 +1074,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:J12"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.142857" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -694,21 +1108,21 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
       <c r="K2" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -887,21 +1301,21 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -910,21 +1324,21 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
       <c r="K14" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -1103,21 +1517,46 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A2:E12"/>
+    <mergeCell ref="F2:J12"/>
+    <mergeCell ref="K2:O12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:O13"/>
     <mergeCell ref="A14:E24"/>
     <mergeCell ref="F14:J24"/>
     <mergeCell ref="K14:O24"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A2:E12"/>
-    <mergeCell ref="F2:J12"/>
-    <mergeCell ref="K2:O12"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1571266979" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.511806" right="0.511806" top="0.787500" bottom="0.787500" header="0.315278" footer="0.315278"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1571266979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1571266979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1571266979" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1571266979" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1571266979" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1125,11 +1564,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.40"/>
   <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1571266979" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.511806" right="0.511806" top="0.787500" bottom="0.787500" header="0.315278" footer="0.315278"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1571266979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1571266979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1571266979" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1571266979" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1571266979" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1137,10 +1604,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.40"/>
   <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1571266979" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.511806" right="0.511806" top="0.787500" bottom="0.787500" header="0.315278" footer="0.315278"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1571266979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1571266979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1571266979" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1571266979" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1571266979" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>